--- a/DoAn/bangPhanCong_dot3.xlsx
+++ b/DoAn/bangPhanCong_dot3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delam\OneDrive\Documents\GitHub\DoAn_Nhung\DoAn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1007FA05-6065-4FD7-A2F1-95716ED3EE82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DE5716-E0C4-41AD-A6B0-CFE6BCCC4133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,13 +99,13 @@
     <t>23h59 T6/24/11</t>
   </si>
   <si>
-    <t>23h59 T3/24/11</t>
-  </si>
-  <si>
     <t>&lt;50%</t>
   </si>
   <si>
     <t>23h59 CN/19/11</t>
+  </si>
+  <si>
+    <t>23h59 T3/21/11</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -254,16 +254,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -283,6 +273,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -573,7 +572,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,14 +588,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -606,7 +605,7 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -626,14 +625,14 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="12"/>
+      <c r="E3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -642,14 +641,14 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -658,14 +657,14 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="12"/>
+      <c r="E5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -674,14 +673,14 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -690,40 +689,40 @@
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="E7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="16"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="18"/>
-      <c r="F12" s="17">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13">
         <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" s="4"/>
-      <c r="F13" s="19" t="s">
-        <v>25</v>
+      <c r="F13" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DoAn/bangPhanCong_dot3.xlsx
+++ b/DoAn/bangPhanCong_dot3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delam\OneDrive\Documents\GitHub\DoAn_Nhung\DoAn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DE5716-E0C4-41AD-A6B0-CFE6BCCC4133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754D8D6-C2F8-4799-8C83-5AD2CF4AAD0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,15 +81,9 @@
     <t>Hoàn thành</t>
   </si>
   <si>
-    <t>Screen đăng nhập, đăng lý</t>
-  </si>
-  <si>
     <t>Screen chính, chi tiết phòng</t>
   </si>
   <si>
-    <t>Screen giới thiệu, trang thông báo</t>
-  </si>
-  <si>
     <t>Screen ds thiết bị,  thêm thiết bị</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>23h59 T3/21/11</t>
+  </si>
+  <si>
+    <t>Screen đăng nhập, trang giới thiệu</t>
+  </si>
+  <si>
+    <t>Screen hướng dẫn, trang thông báo</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -254,10 +254,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -282,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -572,7 +571,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,14 +587,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -605,7 +604,7 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -625,14 +624,14 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="8"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -641,14 +640,14 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -657,12 +656,12 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>25</v>
+      <c r="C5" s="15"/>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -673,12 +672,12 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>25</v>
+      <c r="C6" s="15"/>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -689,40 +688,40 @@
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="E7" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="12"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="14"/>
-      <c r="F12" s="13">
+      <c r="E12" s="12"/>
+      <c r="F12" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" s="4"/>
-      <c r="F13" s="15" t="s">
-        <v>24</v>
+      <c r="F13" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
